--- a/checking hard/Hard chek documentary.xlsx
+++ b/checking hard/Hard chek documentary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah\Desktop\Telc\checking hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E244FD-D55E-456B-A553-D19403297B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39186E0-3EF3-4328-8D9C-2DC534E6C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E347B44-9C96-4624-A51F-AAC4386A7E4C}"/>
   </bookViews>
@@ -1593,7 +1593,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
